--- a/va_facility_data_2025-02-20/Chalmers P. Wylie Veterans Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Chalmers%20P.%20Wylie%20Veterans%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chalmers P. Wylie Veterans Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Chalmers%20P.%20Wylie%20Veterans%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rd324175447e74b1e8533f3dc7dc6ca9b"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R70de0baabf6641d8bd5c11cab000ab5a"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R09e108574ef94bf098f7b7703feeed47"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R951646bead0845e4a4f17d3b82a37e1e"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R967b505381f74c5c979abf3495cea56c"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R35c33506524e4afbbcb47f59b0db4a8c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Ra3003a880cc844e1bcd86b273cb4843c"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R126543950f5b4743856dfb369f65d1a0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Rb010a91d42674e3a899f1a79f8678845"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Rac3337a06b974c4785f51ec5c534dbf9"/>
   </x:sheets>
 </x:workbook>
 </file>
